--- a/CT176-01-DanhSachNopBai.xlsx
+++ b/CT176-01-DanhSachNopBai.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,573 +24,569 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="186">
   <si>
-    <t xml:space="preserve">Học phần</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lập trình hướng đối tượng - Nhóm 1 - Chiều 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBGD: Nguyễn Cao Hồng Ngọc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Họ và tên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ng/Sinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên lớp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điểm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chữ ký</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số máy</t>
+    <t>Học phần</t>
+  </si>
+  <si>
+    <t>Lập trình hướng đối tượng - Nhóm 1 - Chiều 2</t>
+  </si>
+  <si>
+    <t>CBGD: Nguyễn Cao Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mã SV</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Ng/Sinh</t>
+  </si>
+  <si>
+    <t>Tên lớp</t>
+  </si>
+  <si>
+    <t>Số</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>Chữ ký</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>Số máy</t>
   </si>
   <si>
     <t xml:space="preserve"> Số đề</t>
   </si>
   <si>
-    <t xml:space="preserve">Ký tên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điểm TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điểm LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điểm QT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1505896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huỳnh Thanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhã</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI1596A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1507358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hải</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/10/1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI15V7A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1509638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hoàng Mạnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI15Y9A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1509869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/06/1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI15Z6A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1609514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Châu Trường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đạt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/11/1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI16Y9A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1609545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lư Kỳ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1704663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngô Trường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/08/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI1795A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1704680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lương Chí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyện</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/04/1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1704687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hồng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/04/1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1704813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phan Thế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI1796A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1705791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/07/1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP17U8A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1705801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Văn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nghĩa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1706713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dương Thị Mọng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiều</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI17V7A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1706812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hồ Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hôn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI17V7A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1709586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI17Z6A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huỳnh Gia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/03/1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1805618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/03/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI1895A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1805749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Tuấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/06/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI1896A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1805837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huỳnh Trung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vĩnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1805872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI1896A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1805909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chương Do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quân</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1807551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Quốc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI18T9A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1807590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Ngọc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1807664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bùi Quang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sơn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/11/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI18T9A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1809113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Quốc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI18V7A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1809206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Thanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/03/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1809230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hoàng Trọng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/04/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI18V7A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1809367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/10/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI18V7A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1809368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trương Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/02/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1809451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Tấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI18V7A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1809453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Chí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hào</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liên Chí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bảo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/09/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI18Z6A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Phúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/09/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Thị Ngọc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đào</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/05/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Phan Đông</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Châu Khánh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/08/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phan Văn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lực</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phụng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mai Hữu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thuận</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/06/99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1812360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đỗ Khoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/06/00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI18Z6A2</t>
+    <t>Ký tên</t>
+  </si>
+  <si>
+    <t>Điểm TH</t>
+  </si>
+  <si>
+    <t>Điểm LT</t>
+  </si>
+  <si>
+    <t>Điểm QT</t>
+  </si>
+  <si>
+    <t>B1505896</t>
+  </si>
+  <si>
+    <t>Huỳnh Thanh</t>
+  </si>
+  <si>
+    <t>Nhã</t>
+  </si>
+  <si>
+    <t>DI1596A2</t>
+  </si>
+  <si>
+    <t>B1507358</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải</t>
+  </si>
+  <si>
+    <t>Đăng</t>
+  </si>
+  <si>
+    <t>21/10/1997</t>
+  </si>
+  <si>
+    <t>DI15V7A3</t>
+  </si>
+  <si>
+    <t>B1509638</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Mạnh</t>
+  </si>
+  <si>
+    <t>Khương</t>
+  </si>
+  <si>
+    <t>DI15Y9A1</t>
+  </si>
+  <si>
+    <t>B1509869</t>
+  </si>
+  <si>
+    <t>Lê Anh</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>16/06/1997</t>
+  </si>
+  <si>
+    <t>DI15Z6A1</t>
+  </si>
+  <si>
+    <t>B1609514</t>
+  </si>
+  <si>
+    <t>Châu Trường</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>26/11/1997</t>
+  </si>
+  <si>
+    <t>DI16Y9A1</t>
+  </si>
+  <si>
+    <t>B1609545</t>
+  </si>
+  <si>
+    <t>Lư Kỳ</t>
+  </si>
+  <si>
+    <t>Tài</t>
+  </si>
+  <si>
+    <t>B1704663</t>
+  </si>
+  <si>
+    <t>Ngô Trường</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>28/08/1998</t>
+  </si>
+  <si>
+    <t>DI1795A2</t>
+  </si>
+  <si>
+    <t>B1704680</t>
+  </si>
+  <si>
+    <t>Lương Chí</t>
+  </si>
+  <si>
+    <t>Nguyện</t>
+  </si>
+  <si>
+    <t>18/04/1999</t>
+  </si>
+  <si>
+    <t>B1704687</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng</t>
+  </si>
+  <si>
+    <t>Phúc</t>
+  </si>
+  <si>
+    <t>24/04/1999</t>
+  </si>
+  <si>
+    <t>B1704813</t>
+  </si>
+  <si>
+    <t>Phan Thế</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>DI1796A2</t>
+  </si>
+  <si>
+    <t>B1705791</t>
+  </si>
+  <si>
+    <t>Trần Hoàng</t>
+  </si>
+  <si>
+    <t>30/07/1999</t>
+  </si>
+  <si>
+    <t>SP17U8A1</t>
+  </si>
+  <si>
+    <t>B1705801</t>
+  </si>
+  <si>
+    <t>Trần Văn</t>
+  </si>
+  <si>
+    <t>Nghĩa</t>
+  </si>
+  <si>
+    <t>B1706713</t>
+  </si>
+  <si>
+    <t>Dương Thị Mọng</t>
+  </si>
+  <si>
+    <t>Kiều</t>
+  </si>
+  <si>
+    <t>DI17V7A3</t>
+  </si>
+  <si>
+    <t>B1706812</t>
+  </si>
+  <si>
+    <t>Hồ Hoàng</t>
+  </si>
+  <si>
+    <t>Hôn</t>
+  </si>
+  <si>
+    <t>DI17V7A4</t>
+  </si>
+  <si>
+    <t>B1709586</t>
+  </si>
+  <si>
+    <t>Phạm Thành</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>DI17Z6A2</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B1709595</t>
+  </si>
+  <si>
+    <t>Huỳnh Gia</t>
+  </si>
+  <si>
+    <t>24/03/1999</t>
+  </si>
+  <si>
+    <t>B1805618</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim</t>
+  </si>
+  <si>
+    <t>Cúc</t>
+  </si>
+  <si>
+    <t>13/03/2000</t>
+  </si>
+  <si>
+    <t>DI1895A1</t>
+  </si>
+  <si>
+    <t>B1805749</t>
+  </si>
+  <si>
+    <t>Trần Tuấn</t>
+  </si>
+  <si>
+    <t>19/06/2000</t>
+  </si>
+  <si>
+    <t>DI1896A3</t>
+  </si>
+  <si>
+    <t>B1805837</t>
+  </si>
+  <si>
+    <t>Huỳnh Trung</t>
+  </si>
+  <si>
+    <t>Vĩnh</t>
+  </si>
+  <si>
+    <t>B1805872</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy</t>
+  </si>
+  <si>
+    <t>Khang</t>
+  </si>
+  <si>
+    <t>DI1896A2</t>
+  </si>
+  <si>
+    <t>B1805909</t>
+  </si>
+  <si>
+    <t>Chương Do</t>
+  </si>
+  <si>
+    <t>Quân</t>
+  </si>
+  <si>
+    <t>B1807551</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc</t>
+  </si>
+  <si>
+    <t>28/04/2000</t>
+  </si>
+  <si>
+    <t>DI18T9A1</t>
+  </si>
+  <si>
+    <t>B1807590</t>
+  </si>
+  <si>
+    <t>Võ Ngọc</t>
+  </si>
+  <si>
+    <t>B1807664</t>
+  </si>
+  <si>
+    <t>Bùi Quang</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>20/11/2000</t>
+  </si>
+  <si>
+    <t>DI18T9A2</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B1809113</t>
+  </si>
+  <si>
+    <t>Võ Quốc</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>DI18V7A1</t>
+  </si>
+  <si>
+    <t>B1809206</t>
+  </si>
+  <si>
+    <t>Phạm Thanh</t>
+  </si>
+  <si>
+    <t>Tú</t>
+  </si>
+  <si>
+    <t>16/03/2000</t>
+  </si>
+  <si>
+    <t>B1809230</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Trọng</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>16/04/2000</t>
+  </si>
+  <si>
+    <t>DI18V7A5</t>
+  </si>
+  <si>
+    <t>B1809367</t>
+  </si>
+  <si>
+    <t>Lê Hoàng</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>20/10/2000</t>
+  </si>
+  <si>
+    <t>DI18V7A3</t>
+  </si>
+  <si>
+    <t>B1809368</t>
+  </si>
+  <si>
+    <t>Trương Hoàng</t>
+  </si>
+  <si>
+    <t>28/02/2000</t>
+  </si>
+  <si>
+    <t>B1809451</t>
+  </si>
+  <si>
+    <t>Lê Tấn</t>
+  </si>
+  <si>
+    <t>DI18V7A4</t>
+  </si>
+  <si>
+    <t>B1809453</t>
+  </si>
+  <si>
+    <t>Phạm Chí</t>
+  </si>
+  <si>
+    <t>Hào</t>
+  </si>
+  <si>
+    <t>B1812254</t>
+  </si>
+  <si>
+    <t>Liên Chí</t>
+  </si>
+  <si>
+    <t>Bảo</t>
+  </si>
+  <si>
+    <t>17/09/1998</t>
+  </si>
+  <si>
+    <t>DI18Z6A1</t>
+  </si>
+  <si>
+    <t>B1812258</t>
+  </si>
+  <si>
+    <t>Nguyễn Phúc</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
+    <t>30/09/2000</t>
+  </si>
+  <si>
+    <t>B1812259</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Đào</t>
+  </si>
+  <si>
+    <t>15/05/2000</t>
+  </si>
+  <si>
+    <t>B1812268</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Đông</t>
+  </si>
+  <si>
+    <t>B1812279</t>
+  </si>
+  <si>
+    <t>Châu Khánh</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>26/08/2000</t>
+  </si>
+  <si>
+    <t>B1812284</t>
+  </si>
+  <si>
+    <t>Phan Văn</t>
+  </si>
+  <si>
+    <t>Lực</t>
+  </si>
+  <si>
+    <t>B1812293</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim</t>
+  </si>
+  <si>
+    <t>Phụng</t>
+  </si>
+  <si>
+    <t>B1812308</t>
+  </si>
+  <si>
+    <t>Mai Hữu</t>
+  </si>
+  <si>
+    <t>Thuận</t>
+  </si>
+  <si>
+    <t>13/06/99</t>
+  </si>
+  <si>
+    <t>B1812360</t>
+  </si>
+  <si>
+    <t>Đỗ Khoa</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>26/06/00</t>
+  </si>
+  <si>
+    <t>DI18Z6A2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -598,28 +596,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -642,100 +625,71 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -794,165 +748,490 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="5" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="12" style="0" width="4.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="21" width="4.6640625" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="7.1640625" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="27" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" ht="17" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="N1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:30" ht="17" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:30" ht="22" customHeight="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="11">
         <v>35740</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -969,36 +1248,36 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="9" t="n">
+      <c r="AB3" s="9">
         <v>1</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:30" ht="22" customHeight="1">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1015,38 +1294,38 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="9" t="n">
+      <c r="AB4" s="9">
         <v>2</v>
       </c>
-      <c r="AC4" s="9" t="n">
+      <c r="AC4" s="9">
         <v>3</v>
       </c>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:30" ht="22" customHeight="1">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="11">
         <v>35584</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1063,40 +1342,40 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="9" t="n">
+      <c r="AB5" s="9">
         <v>4</v>
       </c>
-      <c r="AC5" s="9" t="n">
+      <c r="AC5" s="9">
         <v>5</v>
       </c>
-      <c r="AD5" s="9" t="n">
+      <c r="AD5" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:30" ht="22" customHeight="1">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1117,30 +1396,30 @@
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:30" ht="22" customHeight="1">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1161,30 +1440,30 @@
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:30" ht="22" customHeight="1">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="11">
         <v>35927</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1205,30 +1484,30 @@
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:30" ht="22" customHeight="1">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1249,30 +1528,30 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:30" ht="22" customHeight="1">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1293,30 +1572,30 @@
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:30" ht="22" customHeight="1">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1337,30 +1616,30 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:30" ht="22" customHeight="1">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="11">
         <v>36282</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1381,30 +1660,30 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:30" ht="22" customHeight="1">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1425,30 +1704,30 @@
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:30" ht="22" customHeight="1">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="11">
         <v>36348</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1469,30 +1748,30 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:30" ht="22" customHeight="1">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="11">
         <v>36379</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1513,30 +1792,30 @@
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:30" ht="22" customHeight="1">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="11">
         <v>36314</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1557,11 +1836,11 @@
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:30" ht="22" customHeight="1">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1570,17 +1849,17 @@
       <c r="D17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="11">
         <v>36472</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1603,30 +1882,30 @@
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" spans="1:30" ht="22" customHeight="1">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -1647,30 +1926,30 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:30" ht="22" customHeight="1">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1691,30 +1970,30 @@
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+    <row r="20" spans="1:30" ht="22" customHeight="1">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -1735,30 +2014,30 @@
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" spans="1:30" ht="22" customHeight="1">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="11">
         <v>36532</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -1779,30 +2058,30 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+    <row r="22" spans="1:30" ht="22" customHeight="1">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="11">
         <v>36773</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -1823,30 +2102,30 @@
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+    <row r="23" spans="1:30" ht="22" customHeight="1">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="11">
         <v>36740</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -1867,30 +2146,30 @@
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+    <row r="24" spans="1:30" ht="22" customHeight="1">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -1911,30 +2190,30 @@
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" spans="1:30" ht="22" customHeight="1">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="11">
         <v>36650</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -1955,11 +2234,11 @@
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+    <row r="26" spans="1:30" ht="22" customHeight="1">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -1968,17 +2247,17 @@
       <c r="D26" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2001,30 +2280,30 @@
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+    <row r="27" spans="1:30" ht="22" customHeight="1">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="11">
         <v>36679</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2045,30 +2324,30 @@
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+    <row r="28" spans="1:30" ht="22" customHeight="1">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -2089,11 +2368,11 @@
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+    <row r="29" spans="1:30" ht="22" customHeight="1">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2102,17 +2381,17 @@
       <c r="D29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -2135,30 +2414,30 @@
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+    <row r="30" spans="1:30" ht="22" customHeight="1">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -2179,30 +2458,30 @@
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+    <row r="31" spans="1:30" ht="22" customHeight="1">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -2223,11 +2502,11 @@
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+    <row r="32" spans="1:30" ht="22" customHeight="1">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -2236,17 +2515,17 @@
       <c r="D32" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="E32" s="11">
         <v>36506</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -2269,30 +2548,30 @@
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+    <row r="33" spans="1:30" ht="22" customHeight="1">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="E33" s="11">
         <v>36530</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -2313,30 +2592,30 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+    <row r="34" spans="1:30" ht="22" customHeight="1">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -2357,30 +2636,30 @@
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+    <row r="35" spans="1:30" ht="22" customHeight="1">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -2401,30 +2680,30 @@
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+    <row r="36" spans="1:30" ht="22" customHeight="1">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2445,30 +2724,30 @@
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+    <row r="37" spans="1:30" ht="22" customHeight="1">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="8" t="n">
+      <c r="E37" s="11">
         <v>36625</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2489,30 +2768,30 @@
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+    <row r="38" spans="1:30" ht="22" customHeight="1">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2533,11 +2812,11 @@
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+    <row r="39" spans="1:30" ht="22" customHeight="1">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -2546,17 +2825,17 @@
       <c r="D39" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="8" t="n">
+      <c r="E39" s="11">
         <v>36564</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2579,30 +2858,30 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+    <row r="40" spans="1:30" ht="22" customHeight="1">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="8" t="n">
+      <c r="E40" s="11">
         <v>36776</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -2623,30 +2902,30 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+    <row r="41" spans="1:30" ht="22" customHeight="1">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -2667,30 +2946,30 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+    <row r="42" spans="1:30" ht="22" customHeight="1">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -2715,12 +2994,11 @@
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.629861111111111" right="0.25" top="0.429861111111111" bottom="0.279861111111111" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.62986111111111098" right="0.25" top="0.42986111111111103" bottom="0.27986111111111101" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>